--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -29,7 +29,7 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>geetuRose</t>
+    <t>DanielNorah</t>
   </si>
 </sst>
 </file>
